--- a/FxReportManagement/exportGUI1.xlsx
+++ b/FxReportManagement/exportGUI1.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="231" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="92">
   <si>
     <t>Logo</t>
   </si>
@@ -26,13 +26,13 @@
     <t>Customer</t>
   </si>
   <si>
-    <t>Tag Gemi</t>
+    <t>Arkas</t>
   </si>
   <si>
     <t>Inspection Procedure</t>
   </si>
   <si>
-    <t>%20</t>
+    <t>Istanbul</t>
   </si>
   <si>
     <t>Page</t>
@@ -41,7 +41,7 @@
     <t>1</t>
   </si>
   <si>
-    <t>ProjectName</t>
+    <t>Project Name</t>
   </si>
   <si>
     <t>Values</t>
@@ -62,9 +62,6 @@
     <t>Inspection Place</t>
   </si>
   <si>
-    <t>Izmit</t>
-  </si>
-  <si>
     <t>Drawing No</t>
   </si>
   <si>
@@ -152,13 +149,10 @@
     <t>Test Medium</t>
   </si>
   <si>
-    <t>VALUES</t>
-  </si>
-  <si>
     <t>GRINDING</t>
   </si>
   <si>
-    <t>UV Light Intencity</t>
+    <t>UV Light Intensity</t>
   </si>
   <si>
     <t>W/m2</t>
@@ -167,7 +161,7 @@
     <t>Demagnetization</t>
   </si>
   <si>
-    <t>Identification of Light Equipment</t>
+    <t>Identication Of Light Equipment</t>
   </si>
   <si>
     <t>***</t>
@@ -182,7 +176,7 @@
     <t>Heat Treatment</t>
   </si>
   <si>
-    <t>Lifting Test Date / Number</t>
+    <t>Lifting Test Date/Number</t>
   </si>
   <si>
     <t>Butt weld</t>
@@ -251,49 +245,7 @@
     <t>Result</t>
   </si>
   <si>
-    <t>ROW 25</t>
-  </si>
-  <si>
-    <t>RED</t>
-  </si>
-  <si>
-    <t>ROW 26</t>
-  </si>
-  <si>
-    <t>ROW 27</t>
-  </si>
-  <si>
-    <t>ROW 28</t>
-  </si>
-  <si>
-    <t>ROW 29</t>
-  </si>
-  <si>
-    <t>ROW 30</t>
-  </si>
-  <si>
-    <t>ROW 31</t>
-  </si>
-  <si>
-    <t>ROW 32</t>
-  </si>
-  <si>
-    <t>ROW 33</t>
-  </si>
-  <si>
-    <t>ROW 34</t>
-  </si>
-  <si>
-    <t>ROW 35</t>
-  </si>
-  <si>
-    <t>ROW 36</t>
-  </si>
-  <si>
-    <t>ROW 37</t>
-  </si>
-  <si>
-    <t>ROW 38</t>
+    <t>OK</t>
   </si>
   <si>
     <t>Personel Information</t>
@@ -311,13 +263,13 @@
     <t>Name Surname</t>
   </si>
   <si>
+    <t>omer omer</t>
+  </si>
+  <si>
     <t>admin admin</t>
   </si>
   <si>
-    <t>omer omer</t>
-  </si>
-  <si>
-    <t>akif akif</t>
+    <t>customer</t>
   </si>
   <si>
     <t>Level</t>
@@ -329,7 +281,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2020-05-18</t>
+    <t>2020-05-27</t>
   </si>
   <si>
     <t>Signature</t>
@@ -343,28 +295,13 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="75">
+  <fonts count="72">
     <font>
       <sz val="11.0"/>
       <color indexed="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="8"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="8"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="8"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -777,7 +714,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="677">
+  <cellXfs count="632">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true"/>
@@ -1327,48 +1264,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true"/>
     <xf numFmtId="0" fontId="58" fillId="3" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyFill="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true"/>
     <xf numFmtId="0" fontId="59" fillId="3" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyFill="true"/>
@@ -1424,37 +1319,34 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="72" fillId="3" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="73" fillId="3" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="74" fillId="3" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true"/>
   </cellXfs>
 </styleSheet>
 </file>
@@ -1469,7 +1361,7 @@
   <cols>
     <col min="1" max="1" width="9.65625" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="9.65625" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="6.48828125" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="6.59765625" customWidth="true" bestFit="true"/>
     <col min="4" max="4" width="6.48828125" customWidth="true" bestFit="true"/>
     <col min="5" max="5" width="11.38671875" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="10.0625" customWidth="true" bestFit="true"/>
@@ -1477,9 +1369,9 @@
     <col min="8" max="8" width="10.0625" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="11.1640625" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="11.546875" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="15.12109375" customWidth="true" bestFit="true"/>
-    <col min="12" max="12" width="15.12109375" customWidth="true" bestFit="true"/>
-    <col min="13" max="13" width="5.10546875" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="14.68359375" customWidth="true" bestFit="true"/>
+    <col min="12" max="12" width="14.68359375" customWidth="true" bestFit="true"/>
+    <col min="13" max="13" width="5.58984375" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="6.3984375" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
@@ -1583,21 +1475,21 @@
       </c>
       <c r="B5" s="66"/>
       <c r="C5" s="67" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="D5" s="68"/>
       <c r="E5" s="69"/>
       <c r="F5" s="70"/>
       <c r="G5" s="80" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H5" s="72"/>
       <c r="I5" s="73" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="J5" s="74"/>
       <c r="K5" s="81" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="L5" s="76"/>
       <c r="M5" s="77" t="s">
@@ -1607,17 +1499,17 @@
     </row>
     <row r="6">
       <c r="A6" s="96" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B6" s="83"/>
       <c r="C6" s="84" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D6" s="85"/>
       <c r="E6" s="86"/>
       <c r="F6" s="87"/>
       <c r="G6" s="97" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H6" s="89"/>
       <c r="I6" s="90" t="s">
@@ -1625,7 +1517,7 @@
       </c>
       <c r="J6" s="91"/>
       <c r="K6" s="98" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="L6" s="93"/>
       <c r="M6" s="94" t="s">
@@ -1635,23 +1527,25 @@
     </row>
     <row r="7">
       <c r="A7" s="113" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B7" s="100"/>
       <c r="C7" s="101" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D7" s="102"/>
       <c r="E7" s="103"/>
       <c r="F7" s="104"/>
       <c r="G7" s="114" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H7" s="106"/>
-      <c r="I7" s="107"/>
+      <c r="I7" s="107" t="s">
+        <v>10</v>
+      </c>
       <c r="J7" s="108"/>
       <c r="K7" s="115" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="L7" s="110"/>
       <c r="M7" s="111" t="s">
@@ -1661,7 +1555,7 @@
     </row>
     <row r="8">
       <c r="A8" s="130" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B8" s="117"/>
       <c r="C8" s="118"/>
@@ -1679,76 +1573,76 @@
     </row>
     <row r="9">
       <c r="A9" s="145" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B9" s="132"/>
       <c r="C9" s="133" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D9" s="134"/>
       <c r="E9" s="135"/>
       <c r="F9" s="146" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G9" s="137"/>
       <c r="H9" s="138" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="I9" s="139"/>
       <c r="J9" s="140"/>
       <c r="K9" s="147" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="L9" s="142"/>
       <c r="M9" s="143" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="N9" s="144"/>
     </row>
     <row r="10">
       <c r="A10" s="162" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B10" s="149"/>
       <c r="C10" s="150" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D10" s="151"/>
       <c r="E10" s="152"/>
       <c r="F10" s="163" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G10" s="154"/>
       <c r="H10" s="155" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="I10" s="156"/>
       <c r="J10" s="157"/>
       <c r="K10" s="164" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="L10" s="159"/>
       <c r="M10" s="160" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="N10" s="161"/>
     </row>
     <row r="11">
       <c r="A11" s="179" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B11" s="166"/>
       <c r="C11" s="167" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D11" s="168"/>
       <c r="E11" s="169"/>
       <c r="F11" s="180" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G11" s="171"/>
       <c r="H11" s="172" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I11" s="173"/>
       <c r="J11" s="174"/>
@@ -1759,102 +1653,102 @@
     </row>
     <row r="12">
       <c r="A12" s="195" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B12" s="182"/>
       <c r="C12" s="183" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D12" s="184"/>
       <c r="E12" s="185"/>
       <c r="F12" s="196" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G12" s="187"/>
       <c r="H12" s="188" t="s">
-        <v>46</v>
+        <v>14</v>
       </c>
       <c r="I12" s="189"/>
       <c r="J12" s="190"/>
       <c r="K12" s="197" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="L12" s="192"/>
       <c r="M12" s="193" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="N12" s="194"/>
     </row>
     <row r="13">
       <c r="A13" s="212" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B13" s="199"/>
       <c r="C13" s="200" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D13" s="201"/>
       <c r="E13" s="202"/>
       <c r="F13" s="213" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="G13" s="204"/>
       <c r="H13" s="205" t="s">
-        <v>46</v>
+        <v>14</v>
       </c>
       <c r="I13" s="206"/>
       <c r="J13" s="207"/>
       <c r="K13" s="214" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="L13" s="209"/>
       <c r="M13" s="210" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="N13" s="211"/>
     </row>
     <row r="14">
       <c r="A14" s="229" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B14" s="216"/>
       <c r="C14" s="217" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D14" s="218"/>
       <c r="E14" s="219"/>
       <c r="F14" s="230" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="G14" s="221"/>
       <c r="H14" s="222" t="s">
-        <v>46</v>
+        <v>14</v>
       </c>
       <c r="I14" s="223"/>
       <c r="J14" s="224"/>
       <c r="K14" s="231" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="L14" s="226"/>
       <c r="M14" s="227" t="s">
-        <v>46</v>
+        <v>14</v>
       </c>
       <c r="N14" s="228"/>
     </row>
     <row r="15">
       <c r="A15" s="232" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B15" s="233"/>
       <c r="C15" s="234"/>
       <c r="D15" s="235" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="E15" s="236"/>
       <c r="F15" s="237"/>
       <c r="G15" s="238"/>
       <c r="H15" s="246" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="I15" s="240"/>
       <c r="J15" s="241"/>
@@ -1872,11 +1766,11 @@
       <c r="F16" s="252"/>
       <c r="G16" s="253"/>
       <c r="H16" s="261" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="I16" s="255"/>
       <c r="J16" s="262" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="K16" s="257"/>
       <c r="L16" s="258"/>
@@ -1892,11 +1786,11 @@
       <c r="F17" s="268"/>
       <c r="G17" s="269"/>
       <c r="H17" s="277" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="I17" s="271"/>
       <c r="J17" s="278" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="K17" s="273"/>
       <c r="L17" s="274"/>
@@ -1912,11 +1806,11 @@
       <c r="F18" s="284"/>
       <c r="G18" s="285"/>
       <c r="H18" s="293" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="I18" s="287"/>
       <c r="J18" s="294" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="K18" s="289"/>
       <c r="L18" s="290"/>
@@ -1932,11 +1826,11 @@
       <c r="F19" s="300"/>
       <c r="G19" s="301"/>
       <c r="H19" s="309" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="I19" s="303"/>
       <c r="J19" s="310" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="K19" s="305"/>
       <c r="L19" s="306"/>
@@ -1945,11 +1839,11 @@
     </row>
     <row r="20">
       <c r="A20" s="325" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B20" s="312"/>
       <c r="C20" s="313" t="s">
-        <v>46</v>
+        <v>14</v>
       </c>
       <c r="D20" s="314"/>
       <c r="E20" s="315"/>
@@ -1965,11 +1859,11 @@
     </row>
     <row r="21">
       <c r="A21" s="340" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B21" s="327"/>
       <c r="C21" s="328" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D21" s="329"/>
       <c r="E21" s="330"/>
@@ -1985,11 +1879,11 @@
     </row>
     <row r="22">
       <c r="A22" s="355" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B22" s="342"/>
       <c r="C22" s="343" t="s">
-        <v>46</v>
+        <v>14</v>
       </c>
       <c r="D22" s="344"/>
       <c r="E22" s="345"/>
@@ -2005,7 +1899,7 @@
     </row>
     <row r="23">
       <c r="A23" s="370" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B23" s="357"/>
       <c r="C23" s="358"/>
@@ -2023,36 +1917,36 @@
     </row>
     <row r="24">
       <c r="A24" s="385" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B24" s="386" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C24" s="373"/>
       <c r="D24" s="374"/>
       <c r="E24" s="387" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="F24" s="388" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="G24" s="377"/>
       <c r="H24" s="389" t="s">
+        <v>72</v>
+      </c>
+      <c r="I24" s="390" t="s">
+        <v>73</v>
+      </c>
+      <c r="J24" s="391" t="s">
         <v>74</v>
       </c>
-      <c r="I24" s="390" t="s">
+      <c r="K24" s="392" t="s">
         <v>75</v>
-      </c>
-      <c r="J24" s="391" t="s">
-        <v>76</v>
-      </c>
-      <c r="K24" s="392" t="s">
-        <v>77</v>
       </c>
       <c r="L24" s="382"/>
       <c r="M24" s="383"/>
       <c r="N24" s="393" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="25">
@@ -2060,33 +1954,33 @@
         <v>1.0</v>
       </c>
       <c r="B25" s="395" t="s">
-        <v>46</v>
+        <v>14</v>
       </c>
       <c r="C25" s="396"/>
       <c r="D25" s="397"/>
       <c r="E25" s="398" t="s">
-        <v>46</v>
+        <v>14</v>
       </c>
       <c r="F25" s="399" t="s">
-        <v>46</v>
+        <v>14</v>
       </c>
       <c r="G25" s="400"/>
       <c r="H25" s="401" t="s">
-        <v>46</v>
+        <v>14</v>
       </c>
       <c r="I25" s="402" t="s">
-        <v>46</v>
+        <v>14</v>
       </c>
       <c r="J25" s="403" t="s">
-        <v>46</v>
+        <v>14</v>
       </c>
       <c r="K25" s="404" t="s">
-        <v>79</v>
+        <v>14</v>
       </c>
       <c r="L25" s="405"/>
       <c r="M25" s="406"/>
       <c r="N25" s="407" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
     </row>
     <row r="26">
@@ -2094,33 +1988,33 @@
         <v>2.0</v>
       </c>
       <c r="B26" s="409" t="s">
-        <v>46</v>
+        <v>14</v>
       </c>
       <c r="C26" s="410"/>
       <c r="D26" s="411"/>
       <c r="E26" s="412" t="s">
-        <v>46</v>
+        <v>14</v>
       </c>
       <c r="F26" s="413" t="s">
-        <v>46</v>
+        <v>14</v>
       </c>
       <c r="G26" s="414"/>
       <c r="H26" s="415" t="s">
-        <v>46</v>
+        <v>14</v>
       </c>
       <c r="I26" s="416" t="s">
-        <v>46</v>
+        <v>14</v>
       </c>
       <c r="J26" s="417" t="s">
-        <v>46</v>
+        <v>14</v>
       </c>
       <c r="K26" s="418" t="s">
-        <v>81</v>
+        <v>14</v>
       </c>
       <c r="L26" s="419"/>
       <c r="M26" s="420"/>
       <c r="N26" s="421" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
     </row>
     <row r="27">
@@ -2128,33 +2022,33 @@
         <v>3.0</v>
       </c>
       <c r="B27" s="423" t="s">
-        <v>46</v>
+        <v>14</v>
       </c>
       <c r="C27" s="424"/>
       <c r="D27" s="425"/>
       <c r="E27" s="426" t="s">
-        <v>46</v>
+        <v>14</v>
       </c>
       <c r="F27" s="427" t="s">
-        <v>46</v>
+        <v>14</v>
       </c>
       <c r="G27" s="428"/>
       <c r="H27" s="429" t="s">
-        <v>46</v>
+        <v>14</v>
       </c>
       <c r="I27" s="430" t="s">
-        <v>46</v>
+        <v>14</v>
       </c>
       <c r="J27" s="431" t="s">
-        <v>46</v>
+        <v>14</v>
       </c>
       <c r="K27" s="432" t="s">
-        <v>82</v>
+        <v>14</v>
       </c>
       <c r="L27" s="433"/>
       <c r="M27" s="434"/>
       <c r="N27" s="435" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
     </row>
     <row r="28">
@@ -2162,33 +2056,33 @@
         <v>4.0</v>
       </c>
       <c r="B28" s="437" t="s">
-        <v>46</v>
+        <v>14</v>
       </c>
       <c r="C28" s="438"/>
       <c r="D28" s="439"/>
       <c r="E28" s="440" t="s">
-        <v>46</v>
+        <v>14</v>
       </c>
       <c r="F28" s="441" t="s">
-        <v>46</v>
+        <v>14</v>
       </c>
       <c r="G28" s="442"/>
       <c r="H28" s="443" t="s">
-        <v>46</v>
+        <v>14</v>
       </c>
       <c r="I28" s="444" t="s">
-        <v>46</v>
+        <v>14</v>
       </c>
       <c r="J28" s="445" t="s">
-        <v>46</v>
+        <v>14</v>
       </c>
       <c r="K28" s="446" t="s">
-        <v>83</v>
+        <v>14</v>
       </c>
       <c r="L28" s="447"/>
       <c r="M28" s="448"/>
       <c r="N28" s="449" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
     </row>
     <row r="29">
@@ -2196,33 +2090,33 @@
         <v>5.0</v>
       </c>
       <c r="B29" s="451" t="s">
-        <v>46</v>
+        <v>14</v>
       </c>
       <c r="C29" s="452"/>
       <c r="D29" s="453"/>
       <c r="E29" s="454" t="s">
-        <v>46</v>
+        <v>14</v>
       </c>
       <c r="F29" s="455" t="s">
-        <v>46</v>
+        <v>14</v>
       </c>
       <c r="G29" s="456"/>
       <c r="H29" s="457" t="s">
-        <v>46</v>
+        <v>14</v>
       </c>
       <c r="I29" s="458" t="s">
-        <v>46</v>
+        <v>14</v>
       </c>
       <c r="J29" s="459" t="s">
-        <v>46</v>
+        <v>14</v>
       </c>
       <c r="K29" s="460" t="s">
-        <v>84</v>
+        <v>14</v>
       </c>
       <c r="L29" s="461"/>
       <c r="M29" s="462"/>
       <c r="N29" s="463" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
     </row>
     <row r="30">
@@ -2230,33 +2124,33 @@
         <v>6.0</v>
       </c>
       <c r="B30" s="465" t="s">
-        <v>46</v>
+        <v>14</v>
       </c>
       <c r="C30" s="466"/>
       <c r="D30" s="467"/>
       <c r="E30" s="468" t="s">
-        <v>46</v>
+        <v>14</v>
       </c>
       <c r="F30" s="469" t="s">
-        <v>46</v>
+        <v>14</v>
       </c>
       <c r="G30" s="470"/>
       <c r="H30" s="471" t="s">
-        <v>46</v>
+        <v>14</v>
       </c>
       <c r="I30" s="472" t="s">
-        <v>46</v>
+        <v>14</v>
       </c>
       <c r="J30" s="473" t="s">
-        <v>46</v>
+        <v>14</v>
       </c>
       <c r="K30" s="474" t="s">
-        <v>85</v>
+        <v>14</v>
       </c>
       <c r="L30" s="475"/>
       <c r="M30" s="476"/>
       <c r="N30" s="477" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
     </row>
     <row r="31">
@@ -2264,33 +2158,33 @@
         <v>7.0</v>
       </c>
       <c r="B31" s="479" t="s">
-        <v>46</v>
+        <v>14</v>
       </c>
       <c r="C31" s="480"/>
       <c r="D31" s="481"/>
       <c r="E31" s="482" t="s">
-        <v>46</v>
+        <v>14</v>
       </c>
       <c r="F31" s="483" t="s">
-        <v>46</v>
+        <v>14</v>
       </c>
       <c r="G31" s="484"/>
       <c r="H31" s="485" t="s">
-        <v>46</v>
+        <v>14</v>
       </c>
       <c r="I31" s="486" t="s">
-        <v>46</v>
+        <v>14</v>
       </c>
       <c r="J31" s="487" t="s">
-        <v>46</v>
+        <v>14</v>
       </c>
       <c r="K31" s="488" t="s">
-        <v>86</v>
+        <v>14</v>
       </c>
       <c r="L31" s="489"/>
       <c r="M31" s="490"/>
       <c r="N31" s="491" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
     </row>
     <row r="32">
@@ -2298,33 +2192,33 @@
         <v>8.0</v>
       </c>
       <c r="B32" s="493" t="s">
-        <v>46</v>
+        <v>14</v>
       </c>
       <c r="C32" s="494"/>
       <c r="D32" s="495"/>
       <c r="E32" s="496" t="s">
-        <v>46</v>
+        <v>14</v>
       </c>
       <c r="F32" s="497" t="s">
-        <v>46</v>
+        <v>14</v>
       </c>
       <c r="G32" s="498"/>
       <c r="H32" s="499" t="s">
-        <v>46</v>
+        <v>14</v>
       </c>
       <c r="I32" s="500" t="s">
-        <v>46</v>
+        <v>14</v>
       </c>
       <c r="J32" s="501" t="s">
-        <v>46</v>
+        <v>14</v>
       </c>
       <c r="K32" s="502" t="s">
-        <v>87</v>
+        <v>14</v>
       </c>
       <c r="L32" s="503"/>
       <c r="M32" s="504"/>
       <c r="N32" s="505" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
     </row>
     <row r="33">
@@ -2332,33 +2226,33 @@
         <v>9.0</v>
       </c>
       <c r="B33" s="507" t="s">
-        <v>46</v>
+        <v>14</v>
       </c>
       <c r="C33" s="508"/>
       <c r="D33" s="509"/>
       <c r="E33" s="510" t="s">
-        <v>46</v>
+        <v>14</v>
       </c>
       <c r="F33" s="511" t="s">
-        <v>46</v>
+        <v>14</v>
       </c>
       <c r="G33" s="512"/>
       <c r="H33" s="513" t="s">
-        <v>46</v>
+        <v>14</v>
       </c>
       <c r="I33" s="514" t="s">
-        <v>46</v>
+        <v>14</v>
       </c>
       <c r="J33" s="515" t="s">
-        <v>46</v>
+        <v>14</v>
       </c>
       <c r="K33" s="516" t="s">
-        <v>88</v>
+        <v>14</v>
       </c>
       <c r="L33" s="517"/>
       <c r="M33" s="518"/>
       <c r="N33" s="519" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
     </row>
     <row r="34">
@@ -2366,33 +2260,33 @@
         <v>10.0</v>
       </c>
       <c r="B34" s="521" t="s">
-        <v>46</v>
+        <v>14</v>
       </c>
       <c r="C34" s="522"/>
       <c r="D34" s="523"/>
       <c r="E34" s="524" t="s">
-        <v>46</v>
+        <v>14</v>
       </c>
       <c r="F34" s="525" t="s">
-        <v>46</v>
+        <v>14</v>
       </c>
       <c r="G34" s="526"/>
       <c r="H34" s="527" t="s">
-        <v>46</v>
+        <v>14</v>
       </c>
       <c r="I34" s="528" t="s">
-        <v>46</v>
+        <v>14</v>
       </c>
       <c r="J34" s="529" t="s">
-        <v>46</v>
+        <v>14</v>
       </c>
       <c r="K34" s="530" t="s">
-        <v>89</v>
+        <v>14</v>
       </c>
       <c r="L34" s="531"/>
       <c r="M34" s="532"/>
       <c r="N34" s="533" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
     </row>
     <row r="35">
@@ -2400,134 +2294,213 @@
         <v>11.0</v>
       </c>
       <c r="B35" s="535" t="s">
-        <v>46</v>
+        <v>14</v>
       </c>
       <c r="C35" s="536"/>
       <c r="D35" s="537"/>
       <c r="E35" s="538" t="s">
-        <v>46</v>
+        <v>14</v>
       </c>
       <c r="F35" s="539" t="s">
-        <v>46</v>
+        <v>14</v>
       </c>
       <c r="G35" s="540"/>
       <c r="H35" s="541" t="s">
-        <v>46</v>
+        <v>14</v>
       </c>
       <c r="I35" s="542" t="s">
-        <v>46</v>
+        <v>14</v>
       </c>
       <c r="J35" s="543" t="s">
-        <v>46</v>
+        <v>14</v>
       </c>
       <c r="K35" s="544" t="s">
-        <v>90</v>
+        <v>14</v>
       </c>
       <c r="L35" s="545"/>
       <c r="M35" s="546"/>
       <c r="N35" s="547" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36"/>
+      <c r="B36"/>
+      <c r="C36"/>
+      <c r="D36"/>
+      <c r="E36"/>
+      <c r="F36"/>
+      <c r="G36"/>
+      <c r="H36"/>
+      <c r="I36"/>
+      <c r="J36"/>
+      <c r="K36"/>
+      <c r="L36"/>
+      <c r="M36"/>
+      <c r="N36"/>
+    </row>
+    <row r="37">
+      <c r="A37"/>
+      <c r="B37"/>
+      <c r="C37"/>
+      <c r="D37"/>
+      <c r="E37"/>
+      <c r="F37"/>
+      <c r="G37"/>
+      <c r="H37"/>
+      <c r="I37"/>
+      <c r="J37"/>
+      <c r="K37"/>
+      <c r="L37"/>
+      <c r="M37"/>
+      <c r="N37"/>
+    </row>
+    <row r="38">
+      <c r="A38"/>
+      <c r="B38"/>
+      <c r="C38"/>
+      <c r="D38"/>
+      <c r="E38"/>
+      <c r="F38"/>
+      <c r="G38"/>
+      <c r="H38"/>
+      <c r="I38"/>
+      <c r="J38"/>
+      <c r="K38"/>
+      <c r="L38"/>
+      <c r="M38"/>
+      <c r="N38"/>
+    </row>
+    <row r="39">
+      <c r="A39" s="549" t="s">
+        <v>78</v>
+      </c>
+      <c r="B39" s="551"/>
+      <c r="C39" s="553"/>
+      <c r="D39" s="555" t="s">
+        <v>79</v>
+      </c>
+      <c r="E39" s="557"/>
+      <c r="F39" s="559"/>
+      <c r="G39" s="561" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="36">
-      <c r="A36" s="548" t="n">
-        <v>12.0</v>
-      </c>
-      <c r="B36" s="549" t="s">
-        <v>46</v>
-      </c>
-      <c r="C36" s="550"/>
-      <c r="D36" s="551"/>
-      <c r="E36" s="552" t="s">
-        <v>46</v>
-      </c>
-      <c r="F36" s="553" t="s">
-        <v>46</v>
-      </c>
-      <c r="G36" s="554"/>
-      <c r="H36" s="555" t="s">
-        <v>46</v>
-      </c>
-      <c r="I36" s="556" t="s">
-        <v>46</v>
-      </c>
-      <c r="J36" s="557" t="s">
-        <v>46</v>
-      </c>
-      <c r="K36" s="558" t="s">
+      <c r="H39" s="563"/>
+      <c r="I39" s="565"/>
+      <c r="J39" s="567" t="s">
+        <v>81</v>
+      </c>
+      <c r="K39" s="569"/>
+      <c r="L39" s="571"/>
+      <c r="M39" s="573" t="s">
+        <v>3</v>
+      </c>
+      <c r="N39" s="575"/>
+    </row>
+    <row r="40">
+      <c r="A40" s="576" t="s">
+        <v>82</v>
+      </c>
+      <c r="B40" s="577"/>
+      <c r="C40" s="578"/>
+      <c r="D40" s="579" t="s">
+        <v>83</v>
+      </c>
+      <c r="E40" s="580"/>
+      <c r="F40" s="581"/>
+      <c r="G40" s="582" t="s">
+        <v>84</v>
+      </c>
+      <c r="H40" s="583"/>
+      <c r="I40" s="584"/>
+      <c r="J40" s="585" t="s">
+        <v>83</v>
+      </c>
+      <c r="K40" s="586"/>
+      <c r="L40" s="587"/>
+      <c r="M40" s="588" t="s">
+        <v>85</v>
+      </c>
+      <c r="N40" s="589"/>
+    </row>
+    <row r="41">
+      <c r="A41" s="590" t="s">
+        <v>86</v>
+      </c>
+      <c r="B41" s="591"/>
+      <c r="C41" s="592"/>
+      <c r="D41" s="593" t="s">
+        <v>87</v>
+      </c>
+      <c r="E41" s="594"/>
+      <c r="F41" s="595"/>
+      <c r="G41" s="596" t="s">
+        <v>87</v>
+      </c>
+      <c r="H41" s="597"/>
+      <c r="I41" s="598"/>
+      <c r="J41" s="599" t="s">
+        <v>87</v>
+      </c>
+      <c r="K41" s="600"/>
+      <c r="L41" s="601"/>
+      <c r="M41" s="602" t="s">
+        <v>87</v>
+      </c>
+      <c r="N41" s="603"/>
+    </row>
+    <row r="42">
+      <c r="A42" s="604" t="s">
+        <v>88</v>
+      </c>
+      <c r="B42" s="605"/>
+      <c r="C42" s="606"/>
+      <c r="D42" s="607" t="s">
+        <v>89</v>
+      </c>
+      <c r="E42" s="608"/>
+      <c r="F42" s="609"/>
+      <c r="G42" s="610" t="s">
+        <v>89</v>
+      </c>
+      <c r="H42" s="611"/>
+      <c r="I42" s="612"/>
+      <c r="J42" s="613" t="s">
+        <v>89</v>
+      </c>
+      <c r="K42" s="614"/>
+      <c r="L42" s="615"/>
+      <c r="M42" s="616" t="s">
+        <v>89</v>
+      </c>
+      <c r="N42" s="617"/>
+    </row>
+    <row r="43">
+      <c r="A43" s="618" t="s">
+        <v>90</v>
+      </c>
+      <c r="B43" s="619"/>
+      <c r="C43" s="620"/>
+      <c r="D43" s="621" t="s">
         <v>91</v>
       </c>
-      <c r="L36" s="559"/>
-      <c r="M36" s="560"/>
-      <c r="N36" s="561" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" s="562" t="n">
-        <v>13.0</v>
-      </c>
-      <c r="B37" s="563" t="s">
-        <v>46</v>
-      </c>
-      <c r="C37" s="564"/>
-      <c r="D37" s="565"/>
-      <c r="E37" s="566" t="s">
-        <v>46</v>
-      </c>
-      <c r="F37" s="567" t="s">
-        <v>46</v>
-      </c>
-      <c r="G37" s="568"/>
-      <c r="H37" s="569" t="s">
-        <v>46</v>
-      </c>
-      <c r="I37" s="570" t="s">
-        <v>46</v>
-      </c>
-      <c r="J37" s="571" t="s">
-        <v>46</v>
-      </c>
-      <c r="K37" s="572" t="s">
-        <v>92</v>
-      </c>
-      <c r="L37" s="573"/>
-      <c r="M37" s="574"/>
-      <c r="N37" s="575" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" s="676" t="s">
-        <v>106</v>
-      </c>
-      <c r="B38" s="663"/>
-      <c r="C38" s="664"/>
-      <c r="D38" s="665" t="s">
-        <v>107</v>
-      </c>
-      <c r="E38" s="666"/>
-      <c r="F38" s="667"/>
-      <c r="G38" s="668" t="s">
-        <v>107</v>
-      </c>
-      <c r="H38" s="669"/>
-      <c r="I38" s="670"/>
-      <c r="J38" s="671" t="s">
-        <v>107</v>
-      </c>
-      <c r="K38" s="672"/>
-      <c r="L38" s="673"/>
-      <c r="M38" s="674" t="s">
-        <v>107</v>
-      </c>
-      <c r="N38" s="675"/>
-    </row>
-    <row r="39"/>
-    <row r="40"/>
-    <row r="41"/>
-    <row r="42"/>
-    <row r="43"/>
+      <c r="E43" s="622"/>
+      <c r="F43" s="623"/>
+      <c r="G43" s="624" t="s">
+        <v>91</v>
+      </c>
+      <c r="H43" s="625"/>
+      <c r="I43" s="626"/>
+      <c r="J43" s="627" t="s">
+        <v>91</v>
+      </c>
+      <c r="K43" s="628"/>
+      <c r="L43" s="629"/>
+      <c r="M43" s="630" t="s">
+        <v>91</v>
+      </c>
+      <c r="N43" s="631"/>
+    </row>
   </sheetData>
   <mergeCells>
     <mergeCell ref="A1:C2"/>
@@ -2652,15 +2625,9 @@
     <mergeCell ref="B35:D35"/>
     <mergeCell ref="F35:G35"/>
     <mergeCell ref="K35:M35"/>
-    <mergeCell ref="B36:D36"/>
-    <mergeCell ref="F36:G36"/>
-    <mergeCell ref="K36:M36"/>
-    <mergeCell ref="B37:D37"/>
-    <mergeCell ref="F37:G37"/>
-    <mergeCell ref="K37:M37"/>
-    <mergeCell ref="B38:D38"/>
-    <mergeCell ref="F38:G38"/>
-    <mergeCell ref="K38:M38"/>
+    <mergeCell ref="A36:N36"/>
+    <mergeCell ref="A37:N37"/>
+    <mergeCell ref="A38:N38"/>
     <mergeCell ref="A39:C39"/>
     <mergeCell ref="D39:F39"/>
     <mergeCell ref="G39:I39"/>
